--- a/ME581_numerical_methods/hw08/hw08_problem_1.xlsx
+++ b/ME581_numerical_methods/hw08/hw08_problem_1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juncheng/work/CourseCode/ME581_numerical_methods/hw08/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheng109/work/CourseCode/ME581_numerical_methods/hw08/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24640" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="2280" yWindow="980" windowWidth="24640" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AI83"/>
+  <dimension ref="A3:AD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:A83"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="AD58" sqref="AD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1651,7 +1651,7 @@
         <v>0.73322399999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E49" s="1" t="s">
         <v>6</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>0.86195600000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E50" s="1" t="s">
         <v>3</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>0.90631399999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E51" s="1" t="s">
         <v>7</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>0.86195600000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>0.73322399999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E53" s="1" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>0.53271800000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
         <v>13</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0.28006599999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>2</v>
       </c>
@@ -1940,27 +1940,12 @@
       <c r="AB59" s="4">
         <v>0</v>
       </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
       <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="e">
-        <f t="array" ref="AI59">MINVERSE(D59:AG83)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+        <f>MINVERSE(D59:AB83)</f>
+        <v>-0.30173853923853922</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>3</v>
       </c>
@@ -2046,23 +2031,8 @@
       <c r="AB60" s="4">
         <v>0</v>
       </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>4</v>
       </c>
@@ -2148,23 +2118,8 @@
       <c r="AB61" s="4">
         <v>0</v>
       </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>5</v>
       </c>
@@ -2250,23 +2205,8 @@
       <c r="AB62" s="4">
         <v>0</v>
       </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <f>6-1/216</f>
         <v>5.9953703703703702</v>
@@ -2353,23 +2293,8 @@
       <c r="AB63" s="4">
         <v>0</v>
       </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>3</v>
       </c>
@@ -2455,23 +2380,8 @@
       <c r="AB64" s="4">
         <v>0</v>
       </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-      <c r="AF64">
-        <v>0</v>
-      </c>
-      <c r="AG64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>4</v>
       </c>
@@ -2557,23 +2467,8 @@
       <c r="AB65" s="4">
         <v>0</v>
       </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
-      <c r="AF65">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>5</v>
       </c>
@@ -2659,23 +2554,8 @@
       <c r="AB66" s="4">
         <v>0</v>
       </c>
-      <c r="AC66">
-        <v>0</v>
-      </c>
-      <c r="AD66">
-        <v>0</v>
-      </c>
-      <c r="AE66">
-        <v>0</v>
-      </c>
-      <c r="AF66">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>6</v>
       </c>
@@ -2761,23 +2641,8 @@
       <c r="AB67" s="4">
         <v>0</v>
       </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
-      <c r="AE67">
-        <v>0</v>
-      </c>
-      <c r="AF67">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <f>7-1/216</f>
         <v>6.9953703703703702</v>
@@ -2864,23 +2729,8 @@
       <c r="AB68" s="4">
         <v>0</v>
       </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
-      <c r="AE68">
-        <v>0</v>
-      </c>
-      <c r="AF68">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>4</v>
       </c>
@@ -2966,23 +2816,8 @@
       <c r="AB69" s="4">
         <v>0</v>
       </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <v>0</v>
-      </c>
-      <c r="AF69">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>5</v>
       </c>
@@ -3068,23 +2903,8 @@
       <c r="AB70" s="4">
         <v>0</v>
       </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>0</v>
-      </c>
-      <c r="AG70" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>6</v>
       </c>
@@ -3170,23 +2990,8 @@
       <c r="AB71" s="4">
         <v>0</v>
       </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
-      <c r="AG71" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>7</v>
       </c>
@@ -3272,23 +3077,8 @@
       <c r="AB72" s="4">
         <v>0</v>
       </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-      <c r="AE72">
-        <v>0</v>
-      </c>
-      <c r="AF72">
-        <v>0</v>
-      </c>
-      <c r="AG72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <f>8-1/216</f>
         <v>7.9953703703703702</v>
@@ -3375,23 +3165,8 @@
       <c r="AB73" s="4">
         <v>0</v>
       </c>
-      <c r="AC73">
-        <v>0</v>
-      </c>
-      <c r="AD73">
-        <v>0</v>
-      </c>
-      <c r="AE73">
-        <v>0</v>
-      </c>
-      <c r="AF73">
-        <v>0</v>
-      </c>
-      <c r="AG73" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>5</v>
       </c>
@@ -3477,23 +3252,8 @@
       <c r="AB74" s="4">
         <v>0</v>
       </c>
-      <c r="AC74">
-        <v>0</v>
-      </c>
-      <c r="AD74">
-        <v>0</v>
-      </c>
-      <c r="AE74">
-        <v>0</v>
-      </c>
-      <c r="AF74">
-        <v>0</v>
-      </c>
-      <c r="AG74" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>6</v>
       </c>
@@ -3579,23 +3339,8 @@
       <c r="AB75" s="4">
         <v>0</v>
       </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <v>0</v>
-      </c>
-      <c r="AF75">
-        <v>0</v>
-      </c>
-      <c r="AG75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>7</v>
       </c>
@@ -3681,23 +3426,8 @@
       <c r="AB76" s="4">
         <v>0</v>
       </c>
-      <c r="AC76">
-        <v>0</v>
-      </c>
-      <c r="AD76">
-        <v>0</v>
-      </c>
-      <c r="AE76">
-        <v>0</v>
-      </c>
-      <c r="AF76">
-        <v>0</v>
-      </c>
-      <c r="AG76" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>8</v>
       </c>
@@ -3783,23 +3513,8 @@
       <c r="AB77" s="4">
         <v>0</v>
       </c>
-      <c r="AC77">
-        <v>0</v>
-      </c>
-      <c r="AD77">
-        <v>0</v>
-      </c>
-      <c r="AE77">
-        <v>0</v>
-      </c>
-      <c r="AF77">
-        <v>0</v>
-      </c>
-      <c r="AG77" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <f>9-1/216</f>
         <v>8.9953703703703702</v>
@@ -3886,23 +3601,8 @@
       <c r="AB78" s="4">
         <v>1</v>
       </c>
-      <c r="AC78">
-        <v>0</v>
-      </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <v>0</v>
-      </c>
-      <c r="AF78">
-        <v>0</v>
-      </c>
-      <c r="AG78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>6</v>
       </c>
@@ -3988,23 +3688,8 @@
       <c r="AB79" s="4">
         <v>0</v>
       </c>
-      <c r="AC79">
-        <v>1</v>
-      </c>
-      <c r="AD79">
-        <v>0</v>
-      </c>
-      <c r="AE79">
-        <v>0</v>
-      </c>
-      <c r="AF79">
-        <v>0</v>
-      </c>
-      <c r="AG79" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>7</v>
       </c>
@@ -4090,23 +3775,8 @@
       <c r="AB80" s="4">
         <v>0</v>
       </c>
-      <c r="AC80">
-        <v>0</v>
-      </c>
-      <c r="AD80">
-        <v>1</v>
-      </c>
-      <c r="AE80">
-        <v>0</v>
-      </c>
-      <c r="AF80">
-        <v>0</v>
-      </c>
-      <c r="AG80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>8</v>
       </c>
@@ -4192,23 +3862,8 @@
       <c r="AB81" s="4">
         <v>0</v>
       </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-      <c r="AD81">
-        <v>0</v>
-      </c>
-      <c r="AE81">
-        <v>1</v>
-      </c>
-      <c r="AF81">
-        <v>0</v>
-      </c>
-      <c r="AG81" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>9</v>
       </c>
@@ -4294,23 +3949,8 @@
       <c r="AB82">
         <v>1</v>
       </c>
-      <c r="AC82">
-        <v>0</v>
-      </c>
-      <c r="AD82">
-        <v>0</v>
-      </c>
-      <c r="AE82">
-        <v>0</v>
-      </c>
-      <c r="AF82">
-        <v>1</v>
-      </c>
-      <c r="AG82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <f>10-1/216</f>
         <v>9.9953703703703702</v>
@@ -4396,21 +4036,6 @@
       </c>
       <c r="AB83" s="4">
         <v>-4</v>
-      </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AD83">
-        <v>0</v>
-      </c>
-      <c r="AE83">
-        <v>0</v>
-      </c>
-      <c r="AF83">
-        <v>0</v>
-      </c>
-      <c r="AG83" s="4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
